--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13200"/>
+    <workbookView windowWidth="24180" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>时间</t>
   </si>
@@ -62,6 +62,19 @@
   </si>
   <si>
     <t>库存变更由聚水潭主动同步到我房 OMS 库 T_Inventory 表中</t>
+  </si>
+  <si>
+    <t>2、档案系统拉数据，整个平台商品
+要求：SKUID、商品名称、流程状态、SKU状态、图文详情状态、市场价、会员价、进价</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>1、登录帐号 13761698367     上海磨励自疆信息科技有限公司，这个商家登录密码忘记了，找回密码收不到验证码，麻烦处理一下，谢谢</t>
+  </si>
+  <si>
+    <t>谭挺</t>
   </si>
 </sst>
 </file>
@@ -91,6 +104,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -99,13 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -114,23 +164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,30 +180,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,16 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,23 +226,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,30 +468,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,17 +496,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +524,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -549,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,137 +574,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,6 +713,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -873,6 +889,82 @@
         <a:xfrm>
           <a:off x="1752600" y="5181600"/>
           <a:ext cx="4801235" cy="3658235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>467995</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="1522661516(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="11934825"/>
+          <a:ext cx="7726045" cy="4372610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5058410</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="1522721814(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="17125950"/>
+          <a:ext cx="4848860" cy="3982085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1142,12 +1234,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30:G31"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1226,6 +1318,46 @@
         <v>15</v>
       </c>
     </row>
+    <row r="64" ht="27" spans="1:6">
+      <c r="A64" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" ht="27" spans="1:6">
+      <c r="A93" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>时间</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>谭挺</t>
+  </si>
+  <si>
+    <t>1、拉取 尼尔森3月份的数据</t>
+  </si>
+  <si>
+    <t>张龙云</t>
+  </si>
+  <si>
+    <t>2、http://ad.t.muyingzhijia.com/Admin/Login.aspx    这个系统，你帮我查一下我的用户名跟密码。他们把一些供应商分给我了，我还从来没有登过这个系统。</t>
+  </si>
+  <si>
+    <t>3、网安新增关键字屏蔽</t>
+  </si>
+  <si>
+    <t>邹艳红</t>
   </si>
 </sst>
 </file>
@@ -82,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -104,8 +119,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,29 +179,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,19 +218,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -194,10 +241,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,45 +262,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -263,181 +278,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,26 +487,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,22 +505,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +549,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +577,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,137 +589,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,9 +728,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -965,6 +977,196 @@
         <a:xfrm>
           <a:off x="1838325" y="17125950"/>
           <a:ext cx="4848860" cy="3982085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5696585</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="企业微信截图_1522808378461"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="21736050"/>
+          <a:ext cx="5429885" cy="3629660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534035</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="企业微信截图_15228083971123"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7724775" y="21812250"/>
+          <a:ext cx="5315585" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5582285</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="企业微信截图_1522808378461"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="26212800"/>
+          <a:ext cx="5429885" cy="3629660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600710</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="企业微信截图_15228084094264"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="26155650"/>
+          <a:ext cx="5525135" cy="2543810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5115560</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="1522830333(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="30432375"/>
+          <a:ext cx="4925060" cy="4667885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,12 +1436,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomLeft" activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1342,7 +1544,7 @@
       <c r="A93" s="2">
         <v>43193</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C93" t="s">
@@ -1355,6 +1557,60 @@
         <v>14</v>
       </c>
       <c r="F93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C120" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" ht="27" spans="2:6">
+      <c r="B145" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>17</v>
+      </c>
+      <c r="F145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" t="s">
+        <v>17</v>
+      </c>
+      <c r="F170" t="s">
         <v>11</v>
       </c>
     </row>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>时间</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>邹艳红</t>
+  </si>
+  <si>
+    <t>1、畅游第三方积分平台的对接，购物在我们这边，支付到对方的平台需求评估</t>
+  </si>
+  <si>
+    <t>茅晓冬</t>
+  </si>
+  <si>
+    <t>2、APP版本需求评估</t>
   </si>
 </sst>
 </file>
@@ -99,8 +108,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -119,6 +128,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -135,6 +159,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -150,6 +181,46 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,17 +235,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,46 +258,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,29 +271,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -278,18 +287,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,19 +347,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,139 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,9 +498,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,17 +555,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,26 +578,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,16 +598,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,115 +616,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,6 +1184,158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5582285</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="企业微信截图_15231637773678"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="35556825"/>
+          <a:ext cx="5325110" cy="4629785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4896485</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="1523170926(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="40681275"/>
+          <a:ext cx="4829810" cy="5077460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5219700</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1000760</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13" descr="1523170959(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="40671750"/>
+          <a:ext cx="4925060" cy="5096510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2362835</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="1523170970(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12087225" y="40719375"/>
+          <a:ext cx="4753610" cy="5153660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1436,12 +1597,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C166" sqref="C166"/>
+      <selection pane="bottomLeft" activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1614,6 +1775,43 @@
         <v>11</v>
       </c>
     </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2">
+        <v>43198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" t="s">
+        <v>17</v>
+      </c>
+      <c r="F200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
+      <c r="B230" t="s">
+        <v>27</v>
+      </c>
+      <c r="C230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" t="s">
+        <v>17</v>
+      </c>
+      <c r="F230" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>时间</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>2、APP版本需求评估</t>
+  </si>
+  <si>
+    <t>1、麻烦帮我拉一下母婴之家3-8岁用户数据，数量，地区，男女比例，谢谢</t>
   </si>
 </sst>
 </file>
@@ -106,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -129,7 +132,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,43 +230,31 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,79 +268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,22 +499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,26 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,6 +561,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,133 +601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,6 +1331,82 @@
         <a:xfrm>
           <a:off x="12087225" y="40719375"/>
           <a:ext cx="4753610" cy="5153660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5477510</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17" descr="企业微信截图_15234382466164"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="46281975"/>
+          <a:ext cx="5306060" cy="4458335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5810250</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210185</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18" descr="企业微信截图_15234382626634"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="46272450"/>
+          <a:ext cx="5277485" cy="4382135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1597,12 +1676,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F230" sqref="F230"/>
+      <selection pane="bottomLeft" activeCell="F275" sqref="F275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1812,6 +1891,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B263" t="s">
+        <v>28</v>
+      </c>
+      <c r="C263" t="s">
+        <v>26</v>
+      </c>
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" t="s">
+        <v>17</v>
+      </c>
+      <c r="F263" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
   <si>
     <t>时间</t>
   </si>
@@ -102,19 +102,37 @@
   </si>
   <si>
     <t>1、麻烦帮我拉一下母婴之家3-8岁用户数据，数量，地区，男女比例，谢谢</t>
+  </si>
+  <si>
+    <t>1、内码：590208   顾客4.13号下单，为什么4.14号往账户里面发优惠券？顾客2012年注册的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李海涛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一个会员，暂未跟踪具体到具体原因，需要继续观察</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未能解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,151 +149,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,194 +168,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -483,251 +177,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -745,57 +197,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -806,7 +211,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -828,7 +233,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -866,7 +271,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -904,7 +309,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -942,7 +347,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -980,7 +385,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1018,7 +423,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1056,7 +461,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1094,7 +499,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1132,7 +537,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1170,7 +575,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1208,7 +613,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1246,7 +651,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1284,7 +689,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1322,7 +727,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1360,7 +765,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1398,7 +803,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1407,6 +812,120 @@
         <a:xfrm>
           <a:off x="7439025" y="46272450"/>
           <a:ext cx="5277485" cy="4382135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>12532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3028950</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933576" y="51504682"/>
+          <a:ext cx="2724149" cy="4140367"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3228975</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>551859</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>66106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4857750" y="51463575"/>
+          <a:ext cx="4733334" cy="4552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>380381</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>170884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="51415950"/>
+          <a:ext cx="4952381" cy="4533334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1670,21 +1189,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F275" sqref="F275"/>
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G308" sqref="G308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -1694,7 +1212,7 @@
     <col min="7" max="7" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:6">
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43191</v>
       </c>
@@ -1737,7 +1255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>43192</v>
       </c>
@@ -1760,7 +1278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" ht="27" spans="1:6">
+    <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>43192</v>
       </c>
@@ -1780,7 +1298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" ht="27" spans="1:6">
+    <row r="93" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>43193</v>
       </c>
@@ -1800,7 +1318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>43194</v>
       </c>
@@ -1820,7 +1338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" ht="27" spans="2:6">
+    <row r="145" spans="2:6" ht="27" x14ac:dyDescent="0.15">
       <c r="B145" s="3" t="s">
         <v>22</v>
       </c>
@@ -1837,7 +1355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="2:6">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
         <v>23</v>
       </c>
@@ -1854,7 +1372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
         <v>43198</v>
       </c>
@@ -1874,7 +1392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="2:6">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B230" t="s">
         <v>27</v>
       </c>
@@ -1891,7 +1409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263" s="2">
         <v>43201</v>
       </c>
@@ -1911,9 +1429,32 @@
         <v>11</v>
       </c>
     </row>
+    <row r="292" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A292" s="2">
+        <v>43205</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C292" t="s">
+        <v>30</v>
+      </c>
+      <c r="D292" t="s">
+        <v>31</v>
+      </c>
+      <c r="E292" t="s">
+        <v>32</v>
+      </c>
+      <c r="F292" t="s">
+        <v>34</v>
+      </c>
+      <c r="G292" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>时间</t>
   </si>
@@ -125,6 +125,42 @@
   </si>
   <si>
     <t>未能解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、关于 http://www.holyca.com 这个站点文案违反广告的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱伟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李海涛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、IOS 版本 V5.6.0 和 安卓 V5.5.0.0的开发计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱伟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李海涛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -926,6 +962,120 @@
         <a:xfrm>
           <a:off x="9906000" y="51415950"/>
           <a:ext cx="4952381" cy="4533334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1513389</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>94602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="56683275"/>
+          <a:ext cx="8695239" cy="5190477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>56256</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>170934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="62445900"/>
+          <a:ext cx="7152381" cy="4133334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>837465</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>85247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="62493525"/>
+          <a:ext cx="5885715" cy="3828572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1195,11 +1345,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G308" sqref="G308"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G356" activeCellId="1" sqref="F356 G356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1452,6 +1602,37 @@
         <v>33</v>
       </c>
     </row>
+    <row r="322" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B322" t="s">
+        <v>35</v>
+      </c>
+      <c r="C322" t="s">
+        <v>36</v>
+      </c>
+      <c r="D322" t="s">
+        <v>37</v>
+      </c>
+      <c r="E322" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B356" t="s">
+        <v>39</v>
+      </c>
+      <c r="C356" t="s">
+        <v>40</v>
+      </c>
+      <c r="D356" t="s">
+        <v>41</v>
+      </c>
+      <c r="E356" t="s">
+        <v>42</v>
+      </c>
+      <c r="F356" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>时间</t>
   </si>
@@ -105,70 +105,34 @@
   </si>
   <si>
     <t>1、内码：590208   顾客4.13号下单，为什么4.14号往账户里面发优惠券？顾客2012年注册的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘丹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李海涛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未能解决</t>
   </si>
   <si>
     <t>只有一个会员，暂未跟踪具体到具体原因，需要继续观察</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未能解决</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2、关于 http://www.holyca.com 这个站点文案违反广告的问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱伟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李海涛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3、IOS 版本 V5.6.0 和 安卓 V5.5.0.0的开发计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱伟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李海涛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、www.holyca.com 站点广告违禁词处理</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +149,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +306,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -213,9 +501,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -233,10 +763,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -247,7 +824,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -269,7 +846,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -307,7 +884,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -345,7 +922,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -383,7 +960,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -421,7 +998,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -459,7 +1036,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -497,7 +1074,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -535,7 +1112,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -573,7 +1150,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -611,7 +1188,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -649,7 +1226,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -687,7 +1264,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -725,7 +1302,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -763,7 +1340,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -801,7 +1378,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -839,7 +1416,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -877,15 +1454,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933576" y="51504682"/>
-          <a:ext cx="2724149" cy="4140367"/>
+          <a:off x="1933575" y="51504215"/>
+          <a:ext cx="2724150" cy="4140200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,7 +1492,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -923,7 +1500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4857750" y="51463575"/>
-          <a:ext cx="4733334" cy="4552381"/>
+          <a:ext cx="4733290" cy="4552315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -953,7 +1530,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -961,7 +1538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9906000" y="51415950"/>
-          <a:ext cx="4952381" cy="4533334"/>
+          <a:ext cx="4952365" cy="4533265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,7 +1568,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -999,7 +1576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1857375" y="56683275"/>
-          <a:ext cx="8695239" cy="5190477"/>
+          <a:ext cx="8695055" cy="5189855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1029,7 +1606,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1037,7 +1614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1943100" y="62445900"/>
-          <a:ext cx="7152381" cy="4133334"/>
+          <a:ext cx="7152005" cy="4133215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1067,7 +1644,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1075,7 +1652,83 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9429750" y="62493525"/>
-          <a:ext cx="5885715" cy="3828572"/>
+          <a:ext cx="5885180" cy="3828415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>426</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23" descr="微信图片_20180417090129"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="67046475"/>
+          <a:ext cx="10058400" cy="7313930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6011545</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24" descr="微信图片_20180417090211"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12106275" y="67065525"/>
+          <a:ext cx="8383270" cy="6287135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1339,20 +1992,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G356"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G356" activeCellId="1" sqref="F356 G356"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F387" sqref="F387"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -1362,7 +2016,7 @@
     <col min="7" max="7" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +2039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" ht="27" spans="1:6">
       <c r="A2" s="2">
         <v>43191</v>
       </c>
@@ -1405,7 +2059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>43192</v>
       </c>
@@ -1428,7 +2082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" ht="27" spans="1:6">
       <c r="A64" s="2">
         <v>43192</v>
       </c>
@@ -1448,7 +2102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="93" ht="27" spans="1:6">
       <c r="A93" s="2">
         <v>43193</v>
       </c>
@@ -1468,7 +2122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <v>43194</v>
       </c>
@@ -1488,7 +2142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="145" ht="27" spans="2:6">
       <c r="B145" s="3" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +2159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="2:6">
       <c r="B170" t="s">
         <v>23</v>
       </c>
@@ -1522,7 +2176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6">
       <c r="A200" s="2">
         <v>43198</v>
       </c>
@@ -1542,7 +2196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="2:6">
       <c r="B230" t="s">
         <v>27</v>
       </c>
@@ -1559,7 +2213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6">
       <c r="A263" s="2">
         <v>43201</v>
       </c>
@@ -1579,7 +2233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="292" ht="27" spans="1:7">
       <c r="A292" s="2">
         <v>43205</v>
       </c>
@@ -1587,55 +2241,75 @@
         <v>29</v>
       </c>
       <c r="C292" t="s">
+        <v>13</v>
+      </c>
+      <c r="D292" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" t="s">
+        <v>14</v>
+      </c>
+      <c r="F292" t="s">
         <v>30</v>
       </c>
-      <c r="D292" t="s">
+      <c r="G292" t="s">
         <v>31</v>
       </c>
-      <c r="E292" t="s">
+    </row>
+    <row r="322" spans="2:5">
+      <c r="B322" t="s">
         <v>32</v>
       </c>
-      <c r="F292" t="s">
+      <c r="C322" t="s">
+        <v>8</v>
+      </c>
+      <c r="D322" t="s">
+        <v>9</v>
+      </c>
+      <c r="E322" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="356" spans="2:6">
+      <c r="B356" t="s">
+        <v>33</v>
+      </c>
+      <c r="C356" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" t="s">
+        <v>9</v>
+      </c>
+      <c r="E356" t="s">
+        <v>17</v>
+      </c>
+      <c r="F356" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B383" t="s">
         <v>34</v>
       </c>
-      <c r="G292" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B322" t="s">
-        <v>35</v>
-      </c>
-      <c r="C322" t="s">
-        <v>36</v>
-      </c>
-      <c r="D322" t="s">
-        <v>37</v>
-      </c>
-      <c r="E322" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B356" t="s">
-        <v>39</v>
-      </c>
-      <c r="C356" t="s">
-        <v>40</v>
-      </c>
-      <c r="D356" t="s">
-        <v>41</v>
-      </c>
-      <c r="E356" t="s">
-        <v>42</v>
-      </c>
-      <c r="F356" t="s">
-        <v>43</v>
+      <c r="C383" t="s">
+        <v>8</v>
+      </c>
+      <c r="D383" t="s">
+        <v>9</v>
+      </c>
+      <c r="E383" t="s">
+        <v>17</v>
+      </c>
+      <c r="F383" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>时间</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>1、www.holyca.com 站点广告违禁词处理</t>
+  </si>
+  <si>
+    <t>2、拉取6个月，3个月的购买记录</t>
+  </si>
+  <si>
+    <t>夏颖</t>
   </si>
 </sst>
 </file>
@@ -149,8 +155,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -158,57 +179,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -224,14 +210,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,9 +255,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,38 +298,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -308,42 +314,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,42 +464,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -410,54 +476,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -477,18 +495,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +505,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,82 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -619,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1729,6 +1735,44 @@
         <a:xfrm>
           <a:off x="12106275" y="67065525"/>
           <a:ext cx="8383270" cy="6287135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5744210</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26" descr="企业微信截图_15239662234505"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2038350" y="75028425"/>
+          <a:ext cx="5334635" cy="4334510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1998,12 +2042,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G383"/>
+  <dimension ref="A1:G429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F387" sqref="F387"/>
+      <selection pane="bottomLeft" activeCell="D440" sqref="D440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2307,6 +2351,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="429" spans="2:6">
+      <c r="B429" t="s">
+        <v>35</v>
+      </c>
+      <c r="C429" t="s">
+        <v>36</v>
+      </c>
+      <c r="D429" t="s">
+        <v>9</v>
+      </c>
+      <c r="E429" t="s">
+        <v>17</v>
+      </c>
+      <c r="F429" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>时间</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>夏颖</t>
+  </si>
+  <si>
+    <t>1、通知短信的一个通道要没钱，需要换个通道</t>
+  </si>
+  <si>
+    <t>张雪顺</t>
   </si>
 </sst>
 </file>
@@ -133,10 +139,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1773,6 +1779,44 @@
         <a:xfrm>
           <a:off x="2038350" y="75028425"/>
           <a:ext cx="5334635" cy="4334510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>458</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5477510</xdr:colOff>
+      <xdr:row>485</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25" descr="1524114572(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="79867125"/>
+          <a:ext cx="5258435" cy="4629785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2042,12 +2086,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G429"/>
+  <dimension ref="A1:G458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D440" sqref="D440"/>
+      <selection pane="bottomLeft" activeCell="F458" sqref="F458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2368,6 +2412,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="458" spans="1:6">
+      <c r="A458" s="2">
+        <v>43209</v>
+      </c>
+      <c r="B458" t="s">
+        <v>37</v>
+      </c>
+      <c r="C458" t="s">
+        <v>38</v>
+      </c>
+      <c r="D458" t="s">
+        <v>9</v>
+      </c>
+      <c r="E458" t="s">
+        <v>17</v>
+      </c>
+      <c r="F458" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>时间</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>张雪顺</t>
+  </si>
+  <si>
+    <t>1、 拉一份在售表需要多久 ID  名称  在售状态  市场价  会员价 成本价  库存  30天销量</t>
+  </si>
+  <si>
+    <t>刘静</t>
+  </si>
+  <si>
+    <t xml:space="preserve">需求 </t>
+  </si>
+  <si>
+    <t>2、4796125  微盟会员 现在要微盟的这个会员号也需要有电销的导单功能，@李海涛建个工单，后续麻烦@王奎，谢谢</t>
+  </si>
+  <si>
+    <t>张丹</t>
   </si>
 </sst>
 </file>
@@ -139,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -162,15 +177,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,30 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -223,15 +213,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,9 +236,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,8 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,15 +273,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +304,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -320,25 +335,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,151 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +526,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,80 +621,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -619,149 +634,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +785,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1817,6 +1835,82 @@
         <a:xfrm>
           <a:off x="1847850" y="79867125"/>
           <a:ext cx="5258435" cy="4629785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5001260</xdr:colOff>
+      <xdr:row>516</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27" descr="1524476754(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="85229700"/>
+          <a:ext cx="4763135" cy="4705985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4629785</xdr:colOff>
+      <xdr:row>547</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28" descr="1524476804(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="90773250"/>
+          <a:ext cx="4525010" cy="4667885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2086,12 +2180,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G458"/>
+  <dimension ref="A1:G519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A433" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F458" sqref="F458"/>
+      <selection pane="bottomLeft" activeCell="C526" sqref="C526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2432,6 +2526,40 @@
         <v>11</v>
       </c>
     </row>
+    <row r="488" ht="27" spans="1:6">
+      <c r="A488" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C488" t="s">
+        <v>40</v>
+      </c>
+      <c r="D488" t="s">
+        <v>9</v>
+      </c>
+      <c r="E488" t="s">
+        <v>41</v>
+      </c>
+      <c r="F488" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="519" ht="27" spans="2:5">
+      <c r="B519" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C519" t="s">
+        <v>43</v>
+      </c>
+      <c r="D519" t="s">
+        <v>9</v>
+      </c>
+      <c r="E519" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>时间</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>张丹</t>
+  </si>
+  <si>
+    <t>1、APP后台数据恢复 会员号：4772074  电话：18117283326   注册手机：18017912205   客户要求恢复2017年和2018年的所有查不到的数据。麻烦处理，谢谢！</t>
+  </si>
+  <si>
+    <t>cxf9026 </t>
   </si>
 </sst>
 </file>
@@ -155,9 +161,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -177,14 +183,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +212,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -213,14 +244,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,9 +268,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,9 +290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,25 +304,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,21 +325,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -335,6 +341,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,175 +395,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,11 +535,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,20 +591,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,36 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -634,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1911,6 +1917,44 @@
         <a:xfrm>
           <a:off x="1733550" y="90773250"/>
           <a:ext cx="4525010" cy="4667885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>550</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201295</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29" descr="企业微信截图_15246562499696"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="96212025"/>
+          <a:ext cx="9011920" cy="6068060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2180,12 +2224,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G519"/>
+  <dimension ref="A1:G550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A493" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C526" sqref="C526"/>
+      <selection pane="bottomLeft" activeCell="B552" sqref="B552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2530,7 +2574,7 @@
       <c r="A488" s="2">
         <v>43213</v>
       </c>
-      <c r="B488" s="4" t="s">
+      <c r="B488" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C488" t="s">
@@ -2547,7 +2591,7 @@
       </c>
     </row>
     <row r="519" ht="27" spans="2:5">
-      <c r="B519" s="4" t="s">
+      <c r="B519" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C519" t="s">
@@ -2558,6 +2602,26 @@
       </c>
       <c r="E519" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="550" ht="27" spans="1:6">
+      <c r="A550" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B550" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C550" t="s">
+        <v>45</v>
+      </c>
+      <c r="D550" t="s">
+        <v>9</v>
+      </c>
+      <c r="E550" t="s">
+        <v>17</v>
+      </c>
+      <c r="F550" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>时间</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>cxf9026 </t>
+  </si>
+  <si>
+    <t>1、网安更新敏感词汇</t>
+  </si>
+  <si>
+    <t>2、拉取商品销售数据</t>
   </si>
 </sst>
 </file>
@@ -371,6 +377,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,12 +431,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -461,6 +485,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -498,30 +528,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,137 +658,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +797,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1955,6 +1958,82 @@
         <a:xfrm>
           <a:off x="1962150" y="96212025"/>
           <a:ext cx="9011920" cy="6068060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5420360</xdr:colOff>
+      <xdr:row>606</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30" descr="1524810420(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="102908100"/>
+          <a:ext cx="5191760" cy="2810510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>609</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5220335</xdr:colOff>
+      <xdr:row>639</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31" descr="1524810518(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="106213275"/>
+          <a:ext cx="4839335" cy="5277485"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2224,12 +2303,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G550"/>
+  <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B552" sqref="B552"/>
+      <selection pane="bottomLeft" activeCell="D616" sqref="D616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2608,7 +2687,7 @@
       <c r="A550" s="2">
         <v>43215</v>
       </c>
-      <c r="B550" s="4" t="s">
+      <c r="B550" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C550" t="s">
@@ -2621,6 +2700,43 @@
         <v>17</v>
       </c>
       <c r="F550" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6">
+      <c r="A589" s="2">
+        <v>43217</v>
+      </c>
+      <c r="B589" t="s">
+        <v>46</v>
+      </c>
+      <c r="C589" t="s">
+        <v>24</v>
+      </c>
+      <c r="D589" t="s">
+        <v>9</v>
+      </c>
+      <c r="E589" t="s">
+        <v>17</v>
+      </c>
+      <c r="F589" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="608" spans="2:6">
+      <c r="B608" t="s">
+        <v>47</v>
+      </c>
+      <c r="C608" t="s">
+        <v>40</v>
+      </c>
+      <c r="D608" t="s">
+        <v>9</v>
+      </c>
+      <c r="E608" t="s">
+        <v>17</v>
+      </c>
+      <c r="F608" t="s">
         <v>11</v>
       </c>
     </row>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-04 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>时间</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>2、拉取商品销售数据</t>
+  </si>
+  <si>
+    <t>3、聚水潭显示有库存，母婴之家无法下单</t>
   </si>
 </sst>
 </file>
@@ -167,9 +170,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -311,13 +314,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -331,6 +327,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -347,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,16 +661,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,112 +682,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2034,6 +2037,44 @@
         <a:xfrm>
           <a:off x="2009775" y="106213275"/>
           <a:ext cx="4839335" cy="5277485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>642</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4877435</xdr:colOff>
+      <xdr:row>671</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32" descr="1524818774(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="111994950"/>
+          <a:ext cx="4629785" cy="4944110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2303,12 +2344,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G608"/>
+  <dimension ref="A1:G642"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A586" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A613" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D616" sqref="D616"/>
+      <selection pane="bottomLeft" activeCell="F642" sqref="F642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2740,6 +2781,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="642" spans="2:6">
+      <c r="B642" t="s">
+        <v>48</v>
+      </c>
+      <c r="C642" t="s">
+        <v>43</v>
+      </c>
+      <c r="D642" t="s">
+        <v>9</v>
+      </c>
+      <c r="E642" t="s">
+        <v>14</v>
+      </c>
+      <c r="F642" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
